--- a/ssw567/mrz-scanner/reports/Performance Testing Graph.xlsx
+++ b/ssw567/mrz-scanner/reports/Performance Testing Graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chauh\Documents\SSW 567\Project\SSW567-MRZ-Scanner\ssw567\mrz-scanner\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20545288-EC92-4FAB-9005-1CF07149B829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8D7FE3-7B2E-4E9E-AD36-556CC7C73BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{25A96F35-10E5-48CD-A7D4-492F489709C0}"/>
   </bookViews>
@@ -1788,7 +1788,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ssw567/mrz-scanner/reports/Performance Testing Graph.xlsx
+++ b/ssw567/mrz-scanner/reports/Performance Testing Graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chauh\Documents\SSW 567\Project\SSW567-MRZ-Scanner\ssw567\mrz-scanner\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8D7FE3-7B2E-4E9E-AD36-556CC7C73BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4895B4B-9ACA-4196-B836-20597E4101F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{25A96F35-10E5-48CD-A7D4-492F489709C0}"/>
   </bookViews>
